--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C50D8D-28F7-2D49-A855-7C3B1BCDB261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640EFE4E-E2DD-D449-A4C1-7B561BDC65AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1124,147 +1124,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="85.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1398592564.8000002</v>
-      </c>
-      <c r="C4">
-        <v>1398.6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D9" si="0">C4-B4/1000000</f>
-        <v>7.435199999690667E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>484366485.8499999</v>
-      </c>
-      <c r="C5">
-        <v>498.7</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>14.333514150000099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>29798477.559999999</v>
-      </c>
-      <c r="C6" s="10">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.20152244000000152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1478944072.9100001</v>
-      </c>
-      <c r="C7">
-        <v>1478.9</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-4.4072910000068077E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>418471380</v>
-      </c>
-      <c r="C8">
-        <v>418.5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>2.8619999999989432E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <v>129367772.53999999</v>
-      </c>
-      <c r="C9">
-        <v>129.4</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3.2227460000001429E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2326861.4700000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>9012.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3941876627.6099997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1511,4 +1370,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="85.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1398592564.8000002</v>
+      </c>
+      <c r="C4">
+        <v>1398.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">C4-B4/1000000</f>
+        <v>7.435199999690667E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>484366485.8499999</v>
+      </c>
+      <c r="C5">
+        <v>498.7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>14.333514150000099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>29798477.559999999</v>
+      </c>
+      <c r="C6" s="10">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.20152244000000152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1478944072.9100001</v>
+      </c>
+      <c r="C7">
+        <v>1478.9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-4.4072910000068077E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>418471380</v>
+      </c>
+      <c r="C8">
+        <v>418.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.8619999999989432E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>129367772.53999999</v>
+      </c>
+      <c r="C9">
+        <v>129.4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.2227460000001429E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2326861.4700000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9012.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3941876627.6099997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640EFE4E-E2DD-D449-A4C1-7B561BDC65AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD6B68-51E0-064D-8EBA-4F583B75DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17440" yWindow="-30520" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,35 +181,16 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="21"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,29 +213,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="60"/>
-      </left>
-      <right style="thin">
-        <color indexed="60"/>
-      </right>
-      <top style="thin">
-        <color indexed="60"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="60"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -280,15 +245,11 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный_Лист1_1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -314,7 +275,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Автор" refreshedDate="44811.494410416664" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="71" xr:uid="{00000000-000A-0000-FFFF-FFFF26000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Автор" refreshedDate="44811.494410416664" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="71" xr:uid="{00000000-000A-0000-FFFF-FFFF44000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E13" sheet="Лист1"/>
   </cacheSource>
@@ -781,7 +742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1124,255 +1085,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="30">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6">
-        <v>85680245.240000024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6">
-        <v>87654568.849999964</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6">
-        <v>100287814.59999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <v>103988625.53000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11">
-        <v>108093645.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11">
-        <v>87079531.219999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11">
-        <v>111179194.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="11">
-        <v>75307041.140000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11">
-        <v>70505713.049999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11">
-        <v>84367401.739999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="11">
-        <v>82288561.140000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="11">
-        <v>60153183.07</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D12"/>
   <sheetViews>
@@ -1511,4 +1223,253 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6">
+        <v>120648880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
+        <v>87654568.849999964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100287814.59999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
+        <v>103988625.53000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>119846340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6">
+        <v>77236090</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6">
+        <v>112378920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6">
+        <v>78226470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6">
+        <v>67932680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6">
+        <v>80091100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6">
+        <v>82540130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <v>59901610</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7491DB96-0AF2-9A4F-8948-EAF3EEAAA472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BFC55-4F52-964D-9F40-62150342AA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17440" yWindow="-30520" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -473,14 +473,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="4"/>
@@ -534,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="6">
-        <v>87654568.849999964</v>
+        <v>87654500</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1">
@@ -551,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="6">
-        <v>100287814.59999996</v>
+        <v>84787800</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1">
@@ -568,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>103988625.53000002</v>
+        <v>84519800</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1">

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BFC55-4F52-964D-9F40-62150342AA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635A31D-E7C5-0349-B5FC-1D4EA5995DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8480" yWindow="580" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -474,14 +474,13 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="67.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="4"/>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -3,17 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635A31D-E7C5-0349-B5FC-1D4EA5995DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A2A1B1-09DA-CC46-B996-23D03A946E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="580" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12840" yWindow="4440" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>№ 
 п/п</t>
@@ -48,6 +52,27 @@
     <t>Подразделение</t>
   </si>
   <si>
+    <t>Научное отделение № 4 (НО № 4)</t>
+  </si>
+  <si>
+    <t>Научное отделение № 5 - Испытательный центр (НО № 5 - ИЦ)</t>
+  </si>
+  <si>
+    <t>Научное отделение № 7 (НО № 7)</t>
+  </si>
+  <si>
+    <t>Научное отделение № 8 (НО № 8)</t>
+  </si>
+  <si>
+    <t>Научное отделение № 9 (НО № 9)</t>
+  </si>
+  <si>
+    <t>Научное отделение сопровождения НИОКР и информационных систем (НО СНИОКР и ИС)</t>
+  </si>
+  <si>
+    <t>Отдел капитального строительства (ОКС)</t>
+  </si>
+  <si>
     <t>Август</t>
   </si>
   <si>
@@ -63,6 +88,9 @@
     <t>Декабрь</t>
   </si>
   <si>
+    <t>Научное отделение № 10 (НО № 10)</t>
+  </si>
+  <si>
     <t>Июль</t>
   </si>
   <si>
@@ -82,6 +110,16 @@
   </si>
   <si>
     <t>Январь</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Сумма по полю Ожидаемая выручка
+без НДС (руб.)</t>
   </si>
   <si>
     <t>Подразделение_сокр</t>
@@ -97,7 +135,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +173,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -189,13 +237,31 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,6 +272,555 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Автор" refreshedDate="44811.494410416664" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="71" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E13" sheet="Лист1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="№ _x000a_п/п" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="76"/>
+    </cacheField>
+    <cacheField name="Подразделение" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Научное отделение № 4 (НО № 4)"/>
+        <s v="Научное отделение № 5 - Испытательный центр (НО № 5 - ИЦ)"/>
+        <s v="Научное отделение № 7 (НО № 7)"/>
+        <s v="Научное отделение № 8 (НО № 8)"/>
+        <s v="Научное отделение № 9 (НО № 9)"/>
+        <s v="Научное отделение № 10 (НО № 10)"/>
+        <s v="Научное отделение сопровождения НИОКР и информационных систем (НО СНИОКР и ИС)"/>
+        <s v="Отдел капитального строительства (ОКС)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Месяц отгрузки" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Ожидаемая выручка_x000a_без НДС (руб.)" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1397402191.4700003"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="71">
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Сентябрь"/>
+    <n v="25349350.779999983"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Октябрь"/>
+    <n v="110234864.91000001"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <s v="Ноябрь"/>
+    <n v="52894431.640000001"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="Декабрь"/>
+    <n v="65835857.850000001"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="1"/>
+    <s v="Сентябрь"/>
+    <n v="1590558.36"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="1"/>
+    <s v="Октябрь"/>
+    <n v="1590558.36"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <s v="Ноябрь"/>
+    <n v="1590558.36"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="Декабрь"/>
+    <n v="2593340.04"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="2"/>
+    <s v="Сентябрь"/>
+    <n v="161423868.21000004"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="2"/>
+    <s v="Октябрь"/>
+    <n v="168823810.28000003"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="2"/>
+    <s v="Ноябрь"/>
+    <n v="126705572.31999999"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Декабрь"/>
+    <n v="148680420.22"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="3"/>
+    <s v="Сентябрь"/>
+    <n v="1144400"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+    <s v="Октябрь"/>
+    <n v="214000000"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="3"/>
+    <s v="Ноябрь"/>
+    <n v="40046000"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Декабрь"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="4"/>
+    <s v="Сентябрь"/>
+    <n v="50208.21"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="4"/>
+    <s v="Октябрь"/>
+    <n v="41893341.619999997"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="4"/>
+    <s v="Ноябрь"/>
+    <n v="17250036.800000001"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="4"/>
+    <s v="Декабрь"/>
+    <n v="13907432.07"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="5"/>
+    <s v="Сентябрь"/>
+    <n v="1190373.33"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="5"/>
+    <s v="Октябрь"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="5"/>
+    <s v="Ноябрь"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="5"/>
+    <s v="Декабрь"/>
+    <n v="1397402191.4700003"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="6"/>
+    <s v="Август"/>
+    <n v="319867.2"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="0"/>
+    <s v="Август"/>
+    <n v="23946487.48"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <s v="Август"/>
+    <n v="2988224.66"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="2"/>
+    <s v="Август"/>
+    <n v="62635984.109999999"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="3"/>
+    <s v="Август"/>
+    <n v="2129000"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="6"/>
+    <s v="Июль"/>
+    <n v="348734.4"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="0"/>
+    <s v="Июль"/>
+    <n v="35130055.25"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="1"/>
+    <s v="Июль"/>
+    <n v="3243719.03"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="2"/>
+    <s v="Июль"/>
+    <n v="102878353.05"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="3"/>
+    <s v="Июль"/>
+    <n v="5046280"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="4"/>
+    <s v="Июль"/>
+    <n v="21780685.710000001"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="6"/>
+    <s v="Июнь"/>
+    <n v="239085.6"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="0"/>
+    <s v="Июнь"/>
+    <n v="24456972.73"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="1"/>
+    <s v="Июнь"/>
+    <n v="2533532.42"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="2"/>
+    <s v="Июнь"/>
+    <n v="116723532.17"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="3"/>
+    <s v="Июнь"/>
+    <n v="40161000"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="4"/>
+    <s v="Июнь"/>
+    <n v="607712.51"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="7"/>
+    <s v="Июнь"/>
+    <n v="9012.48"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="6"/>
+    <s v="Май"/>
+    <n v="626930.4"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="0"/>
+    <s v="Май"/>
+    <n v="24326256.280000001"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+    <s v="Май"/>
+    <n v="2736806.54"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="2"/>
+    <s v="Май"/>
+    <n v="117459252.19"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="3"/>
+    <s v="Май"/>
+    <n v="45354000"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="4"/>
+    <s v="Май"/>
+    <n v="4573800.74"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="6"/>
+    <s v="Апрель"/>
+    <n v="281455.2"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="0"/>
+    <s v="Апрель"/>
+    <n v="26598120.579999998"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="1"/>
+    <s v="Апрель"/>
+    <n v="4690583.24"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="2"/>
+    <s v="Апрель"/>
+    <n v="118679020.95"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="3"/>
+    <s v="Апрель"/>
+    <n v="16315000"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="4"/>
+    <s v="Апрель"/>
+    <n v="4590399.99"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="6"/>
+    <s v="Март"/>
+    <n v="342711.34"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="0"/>
+    <s v="Март"/>
+    <n v="41326011.490000002"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="1"/>
+    <s v="Март"/>
+    <n v="1632700.19"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="2"/>
+    <s v="Март"/>
+    <n v="117468674.95"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="3"/>
+    <s v="Март"/>
+    <n v="24544000"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="4"/>
+    <s v="Март"/>
+    <n v="21541131.550000001"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="6"/>
+    <s v="Февраль"/>
+    <n v="78123.5"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="0"/>
+    <s v="Февраль"/>
+    <n v="26411340.960000001"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="1"/>
+    <s v="Февраль"/>
+    <n v="2284369.5699999998"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="2"/>
+    <s v="Февраль"/>
+    <n v="110138598.78"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="3"/>
+    <s v="Февраль"/>
+    <n v="11245600"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="6"/>
+    <s v="Январь"/>
+    <n v="89953.83"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="0"/>
+    <s v="Январь"/>
+    <n v="27856735.899999999"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="1"/>
+    <s v="Январь"/>
+    <n v="2323526.79"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="2"/>
+    <s v="Январь"/>
+    <n v="127326985.68000001"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="3"/>
+    <s v="Январь"/>
+    <n v="18486100"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="4"/>
+    <s v="Январь"/>
+    <n v="3173023.34"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Ожидаемая выручка_x000a_без НДС (руб.)" fld="3" baseField="0" baseItem="0" numFmtId="4"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,6 +1085,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="85.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1398592564.8000002</v>
+      </c>
+      <c r="C4">
+        <v>1398.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">C4-B4/1000000</f>
+        <v>7.435199999690667E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>484366485.8499999</v>
+      </c>
+      <c r="C5">
+        <v>498.7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>14.333514150000099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>29798477.559999999</v>
+      </c>
+      <c r="C6" s="10">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.20152244000000152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1478944072.9100001</v>
+      </c>
+      <c r="C7">
+        <v>1478.9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-4.4072910000068077E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>418471380</v>
+      </c>
+      <c r="C8">
+        <v>418.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.8619999999989432E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>129367772.53999999</v>
+      </c>
+      <c r="C9">
+        <v>129.4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.2227460000001429E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2326861.4700000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9012.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3941876627.6099997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -480,7 +1236,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="4"/>
@@ -494,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -508,13 +1265,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6">
         <v>120648880</v>
@@ -525,16 +1282,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6">
-        <v>87654500</v>
+        <v>113785900</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1">
@@ -542,16 +1299,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6">
-        <v>84787800</v>
+        <v>71865400</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1">
@@ -559,16 +1316,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6">
-        <v>84519800</v>
+        <v>71310800</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1">
@@ -576,13 +1333,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6">
         <v>119846340</v>
@@ -593,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>77236090</v>
@@ -610,13 +1367,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E8" s="6">
         <v>112378920</v>
@@ -627,13 +1384,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6">
         <v>78226470</v>
@@ -644,13 +1401,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6">
         <v>67932680</v>
@@ -661,13 +1418,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6">
         <v>80091100</v>
@@ -678,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6">
         <v>82540130</v>
@@ -695,13 +1452,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6">
         <v>59901610</v>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79831709-83A7-4845-A06D-6E6EB564390A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD150F-D5C7-2E4D-8074-EA647143864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="4440" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCD150F-D5C7-2E4D-8074-EA647143864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EB8AA7-C7F9-E74C-97DB-3D14359D58B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="4440" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -473,15 +473,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="67.5" style="5" customWidth="1"/>
+    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="4"/>
@@ -535,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="6">
-        <v>113785900</v>
+        <v>114575200</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1">
@@ -552,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="6">
-        <v>71865400</v>
+        <v>71801700</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1">
@@ -569,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>71310800</v>
+        <v>70585200</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1">
@@ -709,11 +708,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EB8AA7-C7F9-E74C-97DB-3D14359D58B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E441A90-14DE-C44B-8814-55215A2BDE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>№ 
 п/п</t>
@@ -48,6 +52,27 @@
     <t>Подразделение</t>
   </si>
   <si>
+    <t>Научное отделение № 4 (НО № 4)</t>
+  </si>
+  <si>
+    <t>Научное отделение № 5 - Испытательный центр (НО № 5 - ИЦ)</t>
+  </si>
+  <si>
+    <t>Научное отделение № 7 (НО № 7)</t>
+  </si>
+  <si>
+    <t>Научное отделение № 8 (НО № 8)</t>
+  </si>
+  <si>
+    <t>Научное отделение № 9 (НО № 9)</t>
+  </si>
+  <si>
+    <t>Научное отделение сопровождения НИОКР и информационных систем (НО СНИОКР и ИС)</t>
+  </si>
+  <si>
+    <t>Отдел капитального строительства (ОКС)</t>
+  </si>
+  <si>
     <t>Август</t>
   </si>
   <si>
@@ -63,6 +88,9 @@
     <t>Декабрь</t>
   </si>
   <si>
+    <t>Научное отделение № 10 (НО № 10)</t>
+  </si>
+  <si>
     <t>Июль</t>
   </si>
   <si>
@@ -82,6 +110,16 @@
   </si>
   <si>
     <t>Январь</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Сумма по полю Ожидаемая выручка
+без НДС (руб.)</t>
   </si>
   <si>
     <t>Подразделение_сокр</t>
@@ -97,7 +135,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +173,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -189,13 +237,31 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,6 +272,555 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Автор" refreshedDate="44811.494410416664" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="71" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E13" sheet="Лист1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="№ _x000a_п/п" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="76"/>
+    </cacheField>
+    <cacheField name="Подразделение" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Научное отделение № 4 (НО № 4)"/>
+        <s v="Научное отделение № 5 - Испытательный центр (НО № 5 - ИЦ)"/>
+        <s v="Научное отделение № 7 (НО № 7)"/>
+        <s v="Научное отделение № 8 (НО № 8)"/>
+        <s v="Научное отделение № 9 (НО № 9)"/>
+        <s v="Научное отделение № 10 (НО № 10)"/>
+        <s v="Научное отделение сопровождения НИОКР и информационных систем (НО СНИОКР и ИС)"/>
+        <s v="Отдел капитального строительства (ОКС)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Месяц отгрузки" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Ожидаемая выручка_x000a_без НДС (руб.)" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1397402191.4700003"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="71">
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Сентябрь"/>
+    <n v="25349350.779999983"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Октябрь"/>
+    <n v="110234864.91000001"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <s v="Ноябрь"/>
+    <n v="52894431.640000001"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="Декабрь"/>
+    <n v="65835857.850000001"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="1"/>
+    <s v="Сентябрь"/>
+    <n v="1590558.36"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="1"/>
+    <s v="Октябрь"/>
+    <n v="1590558.36"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <s v="Ноябрь"/>
+    <n v="1590558.36"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="1"/>
+    <s v="Декабрь"/>
+    <n v="2593340.04"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="2"/>
+    <s v="Сентябрь"/>
+    <n v="161423868.21000004"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="2"/>
+    <s v="Октябрь"/>
+    <n v="168823810.28000003"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="2"/>
+    <s v="Ноябрь"/>
+    <n v="126705572.31999999"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <s v="Декабрь"/>
+    <n v="148680420.22"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="3"/>
+    <s v="Сентябрь"/>
+    <n v="1144400"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+    <s v="Октябрь"/>
+    <n v="214000000"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="3"/>
+    <s v="Ноябрь"/>
+    <n v="40046000"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="3"/>
+    <s v="Декабрь"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="4"/>
+    <s v="Сентябрь"/>
+    <n v="50208.21"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="4"/>
+    <s v="Октябрь"/>
+    <n v="41893341.619999997"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="4"/>
+    <s v="Ноябрь"/>
+    <n v="17250036.800000001"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="4"/>
+    <s v="Декабрь"/>
+    <n v="13907432.07"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="5"/>
+    <s v="Сентябрь"/>
+    <n v="1190373.33"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="5"/>
+    <s v="Октябрь"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="5"/>
+    <s v="Ноябрь"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="5"/>
+    <s v="Декабрь"/>
+    <n v="1397402191.4700003"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="6"/>
+    <s v="Август"/>
+    <n v="319867.2"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="0"/>
+    <s v="Август"/>
+    <n v="23946487.48"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <s v="Август"/>
+    <n v="2988224.66"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="2"/>
+    <s v="Август"/>
+    <n v="62635984.109999999"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="3"/>
+    <s v="Август"/>
+    <n v="2129000"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="6"/>
+    <s v="Июль"/>
+    <n v="348734.4"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="0"/>
+    <s v="Июль"/>
+    <n v="35130055.25"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="1"/>
+    <s v="Июль"/>
+    <n v="3243719.03"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="2"/>
+    <s v="Июль"/>
+    <n v="102878353.05"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="3"/>
+    <s v="Июль"/>
+    <n v="5046280"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="4"/>
+    <s v="Июль"/>
+    <n v="21780685.710000001"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="6"/>
+    <s v="Июнь"/>
+    <n v="239085.6"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="0"/>
+    <s v="Июнь"/>
+    <n v="24456972.73"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="1"/>
+    <s v="Июнь"/>
+    <n v="2533532.42"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="2"/>
+    <s v="Июнь"/>
+    <n v="116723532.17"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="3"/>
+    <s v="Июнь"/>
+    <n v="40161000"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="4"/>
+    <s v="Июнь"/>
+    <n v="607712.51"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="7"/>
+    <s v="Июнь"/>
+    <n v="9012.48"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="6"/>
+    <s v="Май"/>
+    <n v="626930.4"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="0"/>
+    <s v="Май"/>
+    <n v="24326256.280000001"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+    <s v="Май"/>
+    <n v="2736806.54"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="2"/>
+    <s v="Май"/>
+    <n v="117459252.19"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="3"/>
+    <s v="Май"/>
+    <n v="45354000"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="4"/>
+    <s v="Май"/>
+    <n v="4573800.74"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="6"/>
+    <s v="Апрель"/>
+    <n v="281455.2"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="0"/>
+    <s v="Апрель"/>
+    <n v="26598120.579999998"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="1"/>
+    <s v="Апрель"/>
+    <n v="4690583.24"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="2"/>
+    <s v="Апрель"/>
+    <n v="118679020.95"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="3"/>
+    <s v="Апрель"/>
+    <n v="16315000"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="4"/>
+    <s v="Апрель"/>
+    <n v="4590399.99"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="6"/>
+    <s v="Март"/>
+    <n v="342711.34"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="0"/>
+    <s v="Март"/>
+    <n v="41326011.490000002"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="1"/>
+    <s v="Март"/>
+    <n v="1632700.19"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="2"/>
+    <s v="Март"/>
+    <n v="117468674.95"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="3"/>
+    <s v="Март"/>
+    <n v="24544000"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="4"/>
+    <s v="Март"/>
+    <n v="21541131.550000001"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="6"/>
+    <s v="Февраль"/>
+    <n v="78123.5"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="0"/>
+    <s v="Февраль"/>
+    <n v="26411340.960000001"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="1"/>
+    <s v="Февраль"/>
+    <n v="2284369.5699999998"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="2"/>
+    <s v="Февраль"/>
+    <n v="110138598.78"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="3"/>
+    <s v="Февраль"/>
+    <n v="11245600"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="6"/>
+    <s v="Январь"/>
+    <n v="89953.83"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="0"/>
+    <s v="Январь"/>
+    <n v="27856735.899999999"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="1"/>
+    <s v="Январь"/>
+    <n v="2323526.79"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="2"/>
+    <s v="Январь"/>
+    <n v="127326985.68000001"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="3"/>
+    <s v="Январь"/>
+    <n v="18486100"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <x v="4"/>
+    <s v="Январь"/>
+    <n v="3173023.34"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Ожидаемая выручка_x000a_без НДС (руб.)" fld="3" baseField="0" baseItem="0" numFmtId="4"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,11 +1085,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="85.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1398592564.8000002</v>
+      </c>
+      <c r="C4">
+        <v>1398.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">C4-B4/1000000</f>
+        <v>7.435199999690667E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>484366485.8499999</v>
+      </c>
+      <c r="C5">
+        <v>498.7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>14.333514150000099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>29798477.559999999</v>
+      </c>
+      <c r="C6" s="10">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.20152244000000152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1478944072.9100001</v>
+      </c>
+      <c r="C7">
+        <v>1478.9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-4.4072910000068077E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>418471380</v>
+      </c>
+      <c r="C8">
+        <v>418.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.8619999999989432E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>129367772.53999999</v>
+      </c>
+      <c r="C9">
+        <v>129.4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.2227460000001429E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2326861.4700000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9012.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3941876627.6099997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -494,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -508,13 +1264,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6">
         <v>120648880</v>
@@ -525,16 +1281,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6">
-        <v>114575200</v>
+        <v>114331500</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1">
@@ -542,16 +1298,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6">
-        <v>71801700</v>
+        <v>112272000</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1">
@@ -559,16 +1315,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6">
-        <v>70585200</v>
+        <v>30358600</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1">
@@ -576,13 +1332,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6">
         <v>119846340</v>
@@ -593,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E7" s="6">
         <v>77236090</v>
@@ -610,13 +1366,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E8" s="6">
         <v>112378920</v>
@@ -627,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6">
         <v>78226470</v>
@@ -644,13 +1400,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6">
         <v>67932680</v>
@@ -661,13 +1417,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6">
         <v>80091100</v>
@@ -678,13 +1434,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6">
         <v>82540130</v>
@@ -695,13 +1451,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6">
         <v>59901610</v>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E064BCF-D63C-B146-92BF-985CFE1687EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9458E27-D99B-2247-97EE-D5AC8451E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>№ 
 п/п</t>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>ГЗ Пульсар</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>00-000000</t>
   </si>
 </sst>
 </file>
@@ -471,22 +477,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="67.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="4" width="67.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,13 +503,16 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -514,13 +523,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>120648880</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -531,13 +543,16 @@
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>114331500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -548,13 +563,16 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>112272000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -565,13 +583,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>30358600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -582,13 +603,16 @@
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>119846340</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -599,13 +623,16 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>77236090</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -616,13 +643,16 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>112378920</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -633,13 +663,16 @@
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>78226470</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -650,13 +683,16 @@
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>67932680</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -667,13 +703,16 @@
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>80091100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -684,13 +723,16 @@
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>82540130</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -701,14 +743,17 @@
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <v>59901610</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9458E27-D99B-2247-97EE-D5AC8451E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,19 +12,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +188,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 4" xfId="2"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,23 +466,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="67.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="67.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
+    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -532,7 +522,7 @@
         <v>120648880</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -552,7 +542,7 @@
         <v>114331500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -572,7 +562,7 @@
         <v>112272000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -592,7 +582,7 @@
         <v>30358600</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -612,7 +602,7 @@
         <v>119846340</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -632,7 +622,7 @@
         <v>77236090</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -652,7 +642,7 @@
         <v>112378920</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -672,7 +662,7 @@
         <v>78226470</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -692,7 +682,7 @@
         <v>67932680</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -712,7 +702,7 @@
         <v>80091100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -732,7 +722,7 @@
         <v>82540130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -753,7 +743,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:F13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1C2D57-3661-5F43-88F8-32356D2CC043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -92,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +189,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 4" xfId="2"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
+    <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,23 +467,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="67.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="67.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -522,7 +523,7 @@
         <v>120648880</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -542,7 +543,7 @@
         <v>114331500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -562,7 +563,7 @@
         <v>112272000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -582,7 +583,7 @@
         <v>30358600</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -602,7 +603,7 @@
         <v>119846340</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -622,7 +623,7 @@
         <v>77236090</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -642,7 +643,7 @@
         <v>112378920</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -662,7 +663,7 @@
         <v>78226470</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -682,7 +683,7 @@
         <v>67932680</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -702,7 +703,7 @@
         <v>80091100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -722,7 +723,7 @@
         <v>82540130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -743,7 +744,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13"/>
+  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1C2D57-3661-5F43-88F8-32356D2CC043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +188,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 4" xfId="2"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,23 +466,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="67.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="67.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
+    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -523,7 +522,7 @@
         <v>120648880</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -543,7 +542,7 @@
         <v>114331500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -560,10 +559,11 @@
         <v>7</v>
       </c>
       <c r="F4" s="6">
-        <v>112272000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+        <f>117397.9*1000</f>
+        <v>117397900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -580,10 +580,11 @@
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <v>30358600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+        <f>70205*1000</f>
+        <v>70205000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -603,7 +604,7 @@
         <v>119846340</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -623,7 +624,7 @@
         <v>77236090</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -643,7 +644,7 @@
         <v>112378920</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -663,7 +664,7 @@
         <v>78226470</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -683,7 +684,7 @@
         <v>67932680</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -703,7 +704,7 @@
         <v>80091100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -723,7 +724,7 @@
         <v>82540130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -744,7 +745,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,8 +580,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="6">
-        <f>70205*1000</f>
-        <v>70205000</v>
+        <v>100097100</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E20258-0CEA-8D46-B7CB-0A69378C7D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,10 +13,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -92,13 +102,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,34 +180,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 4" xfId="2"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,23 +487,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="67.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="67.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -522,7 +543,7 @@
         <v>120648880</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -542,7 +563,7 @@
         <v>114331500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -563,7 +584,7 @@
         <v>117397900</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -579,11 +600,11 @@
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6">
-        <v>100097100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <v>113044000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -603,7 +624,7 @@
         <v>119846340</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -623,7 +644,7 @@
         <v>77236090</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -643,7 +664,7 @@
         <v>112378920</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -663,7 +684,7 @@
         <v>78226470</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -683,7 +704,7 @@
         <v>67932680</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -703,7 +724,7 @@
         <v>80091100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -723,7 +744,7 @@
         <v>82540130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -744,7 +765,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13"/>
+  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E20258-0CEA-8D46-B7CB-0A69378C7D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,19 +12,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,82 +31,74 @@
     <t>Месяц отгрузки</t>
   </si>
   <si>
-    <t>Ожидаемая выручка
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Подразделение_сокр</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар"</t>
+  </si>
+  <si>
+    <t>ГЗ Пульсар</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>00-000000</t>
+  </si>
+  <si>
+    <t>Прогноз
 без НДС (руб.)</t>
-  </si>
-  <si>
-    <t>Подразделение</t>
-  </si>
-  <si>
-    <t>Август</t>
-  </si>
-  <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
-    <t>Октябрь</t>
-  </si>
-  <si>
-    <t>Ноябрь</t>
-  </si>
-  <si>
-    <t>Декабрь</t>
-  </si>
-  <si>
-    <t>Июль</t>
-  </si>
-  <si>
-    <t>Июнь</t>
-  </si>
-  <si>
-    <t>Май</t>
-  </si>
-  <si>
-    <t>Апрель</t>
-  </si>
-  <si>
-    <t>Март</t>
-  </si>
-  <si>
-    <t>Февраль</t>
-  </si>
-  <si>
-    <t>Январь</t>
-  </si>
-  <si>
-    <t>Подразделение_сокр</t>
-  </si>
-  <si>
-    <t>АО "ГЗ "Пульсар"</t>
-  </si>
-  <si>
-    <t>ГЗ Пульсар</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>00-000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,37 +162,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 4" xfId="2"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,285 +467,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="67.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="67.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
+    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>120648880</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>85680245.24000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6">
-        <v>114331500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>87654568.850000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6">
-        <f>117397.9*1000</f>
-        <v>117397900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100287814.60000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7">
-        <v>113044000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
+        <v>103988625.53000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6">
         <v>119846340</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6">
         <v>77236090</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <v>112378920</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6">
         <v>78226470</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="6">
         <v>67932680</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6">
         <v>80091100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6">
         <v>82540130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6">
         <v>59901610</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/Форма по ожидаемой выручке.xlsx
@@ -31,6 +31,10 @@
     <t>Месяц отгрузки</t>
   </si>
   <si>
+    <t>Ожидаемая выручка
+без НДС (руб.)</t>
+  </si>
+  <si>
     <t>Подразделение</t>
   </si>
   <si>
@@ -83,22 +87,26 @@
   </si>
   <si>
     <t>00-000000</t>
-  </si>
-  <si>
-    <t>Прогноз
-без НДС (руб.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,33 +170,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="3"/>
     <cellStyle name="Обычный 4" xfId="2"/>
     <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
@@ -471,7 +481,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,24 +493,24 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -508,19 +518,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7">
-        <v>85680245.24000001</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>120648880</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -528,19 +538,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7">
-        <v>87654568.850000009</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>114331500</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -548,19 +558,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="7">
-        <v>100287814.60000007</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="6">
+        <f>117397.9*1000</f>
+        <v>117397900</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -568,19 +579,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="7">
-        <v>103988625.53000002</v>
+        <v>113044000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -588,16 +599,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="6">
         <v>119846340</v>
@@ -608,16 +619,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6">
         <v>77236090</v>
@@ -628,16 +639,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6">
         <v>112378920</v>
@@ -648,16 +659,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6">
         <v>78226470</v>
@@ -668,16 +679,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6">
         <v>67932680</v>
@@ -688,16 +699,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6">
         <v>80091100</v>
@@ -708,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
         <v>82540130</v>
@@ -728,16 +739,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="6">
         <v>59901610</v>
